--- a/data/annotated/Labels - https___doi.org_10.1093_ehr_cead004.xlsx
+++ b/data/annotated/Labels - https___doi.org_10.1093_ehr_cead004.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Desktop/Data Science/3. Semester 2023 WS/Data Analysis Project/A-blessing-or-a-curse-Analysis-of-scholarly-citations/data/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4416C2D-68A0-AA4F-AE37-AB3C4D3F5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE15D2D-C390-894B-8A30-A53D15075B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Subset</t>
   </si>
   <si>
-    <t>Author/s</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -996,6 +993,9 @@
   </si>
   <si>
     <t>Raphael Lemkin, Culture, and the Concept of Genocide</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1310,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1332,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1541,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1559,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1628,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1798,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1832,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -1866,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2036,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -2154,10 +2154,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -2188,10 +2188,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -2237,10 +2237,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -2288,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -2419,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -2436,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -2504,10 +2504,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -2829,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -3212,10 +3212,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -3294,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>2</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -3427,10 +3427,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E136" s="2">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E138" s="2">
         <v>0</v>
@@ -3571,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E141" s="2">
         <v>0</v>
@@ -3619,10 +3619,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E142" s="2">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E143" s="2">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E144" s="2">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E145" s="2">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E146" s="2">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>2</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E147" s="2">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E148" s="2">
         <v>0</v>
@@ -3738,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E150" s="2">
         <v>0</v>
@@ -3772,10 +3772,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E151" s="2">
         <v>0</v>
@@ -3789,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E152" s="2">
         <v>0</v>
@@ -3806,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="E153" s="2">
         <v>0</v>
@@ -3823,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
@@ -3857,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
@@ -3874,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
@@ -3891,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E168" s="2">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E169" s="2">
         <v>0</v>
@@ -4087,10 +4087,10 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E171" s="2">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E172" s="2">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E173" s="2">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>2</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="E174" s="2">
         <v>0</v>
@@ -4167,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E175" s="2">
         <v>0</v>
@@ -4184,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E176" s="2">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E177" s="2">
         <v>0</v>
@@ -4218,10 +4218,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E178" s="2">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E180" s="2">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E181" s="2">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E182" s="2">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E183" s="2">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E184" s="2">
         <v>0</v>
@@ -4322,10 +4322,10 @@
         <v>1</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E185" s="2">
         <v>0</v>
@@ -4339,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E186" s="2">
         <v>0</v>
@@ -4356,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E187" s="2">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E188" s="2">
         <v>0</v>
@@ -4390,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E189" s="2">
         <v>0</v>
@@ -4407,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E190" s="2">
         <v>0</v>
@@ -4424,10 +4424,10 @@
         <v>2</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E191" s="2">
         <v>0</v>
@@ -4441,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E192" s="2">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E193" s="2">
         <v>0</v>
@@ -4475,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="E194" s="2">
         <v>0</v>
@@ -4492,10 +4492,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="E195" s="2">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>2</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E196" s="2">
         <v>0</v>
@@ -4526,10 +4526,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E197" s="2">
         <v>0</v>
@@ -4543,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E198" s="2">
         <v>0</v>
@@ -4560,10 +4560,10 @@
         <v>2</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E199" s="2">
         <v>0</v>
@@ -4577,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E200" s="2">
         <v>0</v>
@@ -4594,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E201" s="2">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E202" s="2">
         <v>0</v>
@@ -4625,10 +4625,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="E203" s="2">
         <v>0</v>
@@ -4642,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E204" s="2">
         <v>0</v>
@@ -4659,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E205" s="2">
         <v>0</v>
@@ -4676,10 +4676,10 @@
         <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E206" s="2">
         <v>0</v>
@@ -4693,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="E207" s="2">
         <v>0</v>
@@ -4710,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E208" s="2">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="E209" s="2">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="E210" s="2">
         <v>0</v>
@@ -4761,10 +4761,10 @@
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E211" s="2">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="E212" s="2">
         <v>0</v>
@@ -4795,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="E213" s="2">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E214" s="2">
         <v>0</v>
@@ -4827,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="E215" s="2">
         <v>0</v>
@@ -4844,10 +4844,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E216" s="2">
         <v>0</v>
@@ -4861,10 +4861,10 @@
         <v>2</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E217" s="2">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E218" s="2">
         <v>0</v>
